--- a/medicine/Mort/Quattuor_novissima/Quattuor_novissima.xlsx
+++ b/medicine/Mort/Quattuor_novissima/Quattuor_novissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Quattuor[1] novissima, ou Quatre dernières choses, sont les quatre dernières étapes de la destinée humaine selon l'eschatologie chrétienne : la mort, le jugement, le paradis ou l'enfer. Ce thème, qui porte également le nom de fins dernières, a fait l'objet de nombreux commentaires théologiques et apologétiques, suscitant une importante iconographie.
+Les Quattuor novissima, ou Quatre dernières choses, sont les quatre dernières étapes de la destinée humaine selon l'eschatologie chrétienne : la mort, le jugement, le paradis ou l'enfer. Ce thème, qui porte également le nom de fins dernières, a fait l'objet de nombreux commentaires théologiques et apologétiques, suscitant une importante iconographie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le Moyen Âge, les quattuor novissima sont synonymes des « fins dernières » de chaque chrétien[2]. Il était d'usage de consacrer à ce sujet les sermons des quatre dimanches de l'Avent[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le Moyen Âge, les quattuor novissima sont synonymes des « fins dernières » de chaque chrétien. Il était d'usage de consacrer à ce sujet les sermons des quatre dimanches de l'Avent.
 </t>
         </is>
       </c>
